--- a/Log/Log.xlsx
+++ b/Log/Log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,17 +513,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2025-03-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GOBIERNO DEL ESTADO DE CHIHUAHUA</t>
+          <t>BANCO DE MEXICO</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GEC981004RE5</t>
+          <t>BME821130SXA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -540,52 +540,45 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>31350</v>
+        <v>6000</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>facturaschihuahuajuarez@gmail.com.com</t>
+          <t>melissa.pena@banxico.org.mx</t>
         </is>
       </c>
       <c r="J2" t="n">
-        <v>66425</v>
+        <v>78072</v>
       </c>
       <c r="K2" t="n">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="L2" t="n">
-        <v>66425</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Exitoso</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr"/>
+        <v>78072</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-01</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OPERADORA HOTELERA EM</t>
+          <t>FITOKIMICA INDUSTRIAL DE MEXICO</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OHE070727NE1</t>
+          <t>FIM080723B70</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CUAUHTEMOC</t>
+          <t>NORTE</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -597,47 +590,50 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H3" t="n">
-        <v>31110</v>
+        <v>25946</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>rufina.ibanez@accor.com</t>
+          <t>j.cavazos@greencorp.mx</t>
         </is>
       </c>
       <c r="J3" t="n">
-        <v>66148</v>
+        <v>97416</v>
       </c>
       <c r="K3" t="n">
-        <v>682</v>
+        <v>268</v>
       </c>
       <c r="L3" t="n">
-        <v>66148</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>97416</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>Exitoso</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>ERROR</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BANCO NACIONAL DE MEXICO</t>
+          <t>QUALTIA ALIMENTOS OPERACIONES</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BNM840515VB1</t>
+          <t>QAO680613E91</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -657,44 +653,42 @@
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>6000</v>
+        <v>66490</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>pablo.adolfo.ramirezmartinez@citibanamex.com</t>
+          <t>guadalupe.santini@hotmail.com</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>104328</v>
+        <v>121983</v>
       </c>
       <c r="K4" t="n">
-        <v>528</v>
+        <v>398</v>
       </c>
       <c r="L4" t="n">
-        <v>104328</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>121983</v>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
           <t>Exitoso</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LINARAN BELTECH</t>
+          <t>QUALTIA ALIMENTOS OPERACIONES</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>LBE1812065H7</t>
+          <t>QAO680613E91</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -711,52 +705,50 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>11320</v>
+        <v>66490</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>omartrejochavez94@gmail.com</t>
+          <t>msantini@qualtia.com</t>
         </is>
       </c>
       <c r="J5" t="n">
-        <v>104308</v>
+        <v>121983</v>
       </c>
       <c r="K5" t="n">
-        <v>1207</v>
+        <v>398</v>
       </c>
       <c r="L5" t="n">
-        <v>104308</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>121983</v>
+      </c>
       <c r="N5" t="inlineStr">
         <is>
           <t>Exitoso</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>METSO MEXICO</t>
+          <t>SERVICIOS DE CALIDAD EN TRANSPORTE PRIVADO</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MMM9602224P0</t>
+          <t>SCT1608248B3</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CANTERA</t>
+          <t>CUAUHTEMOC</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -768,47 +760,50 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>36647</v>
+        <v>31216</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>luis.urbina@metso.com</t>
+          <t>taller2@gacmotorchih.com.mx</t>
         </is>
       </c>
       <c r="J6" t="n">
-        <v>104428</v>
+        <v>78815</v>
       </c>
       <c r="K6" t="n">
-        <v>269</v>
+        <v>458</v>
       </c>
       <c r="L6" t="n">
-        <v>104428</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>78815</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Exitoso</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr"/>
+          <t>ERROR</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>QUESERíA DOS LAGUNAS</t>
+          <t>BIMBO</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>QDL790104TX1</t>
+          <t>BIM011108DJ5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -828,21 +823,21 @@
         <v>28</v>
       </c>
       <c r="H7" t="n">
-        <v>31615</v>
+        <v>6430</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>capitalhumano@qdl.com.mx</t>
+          <t>edgar.fraire@grupobimbo.com</t>
         </is>
       </c>
       <c r="J7" t="n">
-        <v>87666</v>
+        <v>97444</v>
       </c>
       <c r="K7" t="n">
-        <v>842</v>
+        <v>596</v>
       </c>
       <c r="L7" t="n">
-        <v>87666</v>
+        <v>97444</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -854,31 +849,30 @@
           <t>ERROR</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AIDEE GUADALUPE GRIMALDO RAMIREZ</t>
+          <t>SYNTHON MEXICO</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GIRA760907AV3</t>
+          <t>NLA031212L38</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CUAUHTEMOC</t>
+          <t>NORTE</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -886,47 +880,50 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
-        <v>32540</v>
+        <v>45609</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ggrimaldo992@outlook.com</t>
+          <t>roberto.soto@synthon.com</t>
         </is>
       </c>
       <c r="J8" t="n">
-        <v>66835</v>
+        <v>97446</v>
       </c>
       <c r="K8" t="n">
-        <v>473</v>
+        <v>598</v>
       </c>
       <c r="L8" t="n">
-        <v>66835</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>97446</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Exitoso</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr"/>
+          <t>ERROR</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2024-11-06</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>PLAZA 10 PRODUCCIONES</t>
+          <t>GRUPO BIOTECAP</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PDP090317H80</t>
+          <t>GBI100326PT4</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -943,56 +940,59 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9" t="n">
-        <v>6500</v>
+        <v>47600</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>josealvarez@plaza10.mx</t>
+          <t>serviciotecnico@biotecap.com.mx</t>
         </is>
       </c>
       <c r="J9" t="n">
-        <v>104192</v>
+        <v>121762</v>
       </c>
       <c r="K9" t="n">
-        <v>323</v>
+        <v>986</v>
       </c>
       <c r="L9" t="n">
-        <v>104192</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>121762</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Exitoso</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr"/>
+          <t>ERROR</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2024-11-07</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>JORGE MEDINA VALERIO</t>
+          <t>CONSEJO ESTATAL DE POBLACIóN</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MEVJ8101098SA</t>
+          <t>CEP840223KH5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CUAUHTEMOC</t>
+          <t>CANTERA</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1000,47 +1000,45 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H10" t="n">
-        <v>31030</v>
+        <v>31000</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>asiavaluoscontabilidad@gmail.com</t>
+          <t>coespomigrantes@gmail.com</t>
         </is>
       </c>
       <c r="J10" t="n">
-        <v>66559</v>
+        <v>121864</v>
       </c>
       <c r="K10" t="n">
-        <v>1045</v>
+        <v>209</v>
       </c>
       <c r="L10" t="n">
-        <v>66559</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>121864</v>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
           <t>Exitoso</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SANTIAGO RUIZ AMAYA</t>
+          <t>TRIBUNAL SUPERIOR AGRARIO</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>RUAS960126CE6</t>
+          <t>TSA920227QH7</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1049,7 +1047,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1060,53 +1058,56 @@
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>31205</v>
+        <v>3100</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>sophiapereasa@gmail.com</t>
+          <t>rodurcb@gmail.com</t>
         </is>
       </c>
       <c r="J11" t="n">
-        <v>66631</v>
+        <v>78790</v>
       </c>
       <c r="K11" t="n">
-        <v>368</v>
+        <v>509</v>
       </c>
       <c r="L11" t="n">
-        <v>66631</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>78790</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Exitoso</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr"/>
+          <t>ERROR</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-11-08</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SANTIAGO RUIZ AMAYA</t>
+          <t>KONECRANES MEXICO</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>RUAS960126CE6</t>
+          <t>KME961216EF1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CUAUHTEMOC</t>
+          <t>CANTERA</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1114,47 +1115,45 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H12" t="n">
-        <v>31205</v>
+        <v>52948</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>apodacachaconcarmen@gmail.com</t>
+          <t>lalovato.cinco@gmail.com</t>
         </is>
       </c>
       <c r="J12" t="n">
-        <v>66631</v>
+        <v>122002</v>
       </c>
       <c r="K12" t="n">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="L12" t="n">
-        <v>66631</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>122002</v>
+      </c>
       <c r="N12" t="inlineStr">
         <is>
           <t>Exitoso</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>PLAZA AUTOMOTORES</t>
+          <t>BIMBO</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PAU950814SR5</t>
+          <t>BIM011108DJ5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1171,47 +1170,45 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H13" t="n">
-        <v>66267</v>
+        <v>6430</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>kary.lopez@hondaplaza.com.mx</t>
+          <t>carlos.camacho02@grupobimbo.com</t>
         </is>
       </c>
       <c r="J13" t="n">
-        <v>104115</v>
+        <v>121965</v>
       </c>
       <c r="K13" t="n">
-        <v>469</v>
+        <v>1017</v>
       </c>
       <c r="L13" t="n">
-        <v>104115</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>121965</v>
+      </c>
       <c r="N13" t="inlineStr">
         <is>
           <t>Exitoso</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>INSTITUTO FEDERAL DE TELECOMUNICACIONES</t>
+          <t>SERVICIOS DE CAPITAL HUMANO AXO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>IFD130924CX1</t>
+          <t>SCH110221542</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1220,7 +1217,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1228,47 +1225,50 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H14" t="n">
-        <v>3720</v>
+        <v>53390</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>vicmartinez_2009@hotmail.com</t>
+          <t>mgarciap@grupoaxo.com</t>
         </is>
       </c>
       <c r="J14" t="n">
-        <v>66920</v>
+        <v>78828</v>
       </c>
       <c r="K14" t="n">
         <v>209</v>
       </c>
       <c r="L14" t="n">
-        <v>66920</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>78828</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Exitoso</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr"/>
+          <t>ERROR</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-11-11</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>OSCAR GUADALUPE PALACIOS SILVA</t>
+          <t>AGRICULTURA NACIONAL</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PASO8108269W5</t>
+          <t>ANA811125V12</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1277,7 +1277,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1285,56 +1285,59 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
-        <v>31125</v>
+        <v>10200</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>chimpi.palacios@gmail.com</t>
+          <t>cristinafacturasdragon@gmail.com</t>
         </is>
       </c>
       <c r="J15" t="n">
-        <v>87657</v>
+        <v>97418</v>
       </c>
       <c r="K15" t="n">
-        <v>384</v>
+        <v>521</v>
       </c>
       <c r="L15" t="n">
-        <v>87657</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>97418</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Exitoso</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr"/>
+          <t>ERROR</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-11-10</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MISE TECNOLOGY</t>
+          <t>DIEGO EDUARDO ZACARIAS TREJO</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MTE170317J92</t>
+          <t>ZATD8203099G5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CANTERA</t>
+          <t>NORTE</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>601</v>
+        <v>626</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1342,89 +1345,792 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="H16" t="n">
-        <v>23460</v>
+        <v>31385</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>monica1.tapia@yahoo.com.mx</t>
+          <t>diego.zacarias.trejo@hotmail.com</t>
         </is>
       </c>
       <c r="J16" t="n">
-        <v>104703</v>
+        <v>97488</v>
       </c>
       <c r="K16" t="n">
-        <v>1020</v>
+        <v>458</v>
       </c>
       <c r="L16" t="n">
-        <v>104703</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>97488</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Exitoso</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr"/>
+          <t>ERROR</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-11-05</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>INNOVAK BIOLOGICOS DEL NOROESTE</t>
+          <t>ERNESTO GARCIA COTA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>IBN070115C65</t>
+          <t>GACE641212VD7</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>CUAUHTEMOC</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>612</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>28</v>
+      </c>
+      <c r="H17" t="n">
+        <v>11000</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>facturas.garciacota@gmail.com</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>78990</v>
+      </c>
+      <c r="K17" t="n">
+        <v>170</v>
+      </c>
+      <c r="L17" t="n">
+        <v>78990</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MUNICIPIO DE BALLEZA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MBA6201018K1</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CUAUHTEMOC</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>603</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>G01</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1</v>
+      </c>
+      <c r="H18" t="n">
+        <v>33560</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>difmunicipalballeza2427@gmail.com</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>78991</v>
+      </c>
+      <c r="K18" t="n">
+        <v>734</v>
+      </c>
+      <c r="L18" t="n">
+        <v>78991</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>LAURA GUADALUPE LERMA TORRES</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>LETL900920HA2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>626</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>28</v>
+      </c>
+      <c r="H19" t="n">
+        <v>31500</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>torre.alta.fiscal@gmail.com</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>97613</v>
+      </c>
+      <c r="K19" t="n">
+        <v>481</v>
+      </c>
+      <c r="L19" t="n">
+        <v>97613</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>PABLO ALFREDO ACOSTA ALCARAZ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AOAP681022G34</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>CANTERA</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="E20" t="n">
+        <v>612</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>28</v>
+      </c>
+      <c r="H20" t="n">
+        <v>31207</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>pacosta1968@hotmail.com</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>122347</v>
+      </c>
+      <c r="K20" t="n">
+        <v>463</v>
+      </c>
+      <c r="L20" t="n">
+        <v>122347</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>QUALTIA ALIMENTOS OPERACIONES</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>QAO680613E91</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CANTERA</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
         <v>601</v>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>G03</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>4</v>
       </c>
-      <c r="H17" t="n">
-        <v>31385</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>annakaor@gmail.com</t>
-        </is>
-      </c>
-      <c r="J17" t="n">
-        <v>104087</v>
-      </c>
-      <c r="K17" t="n">
-        <v>435</v>
-      </c>
-      <c r="L17" t="n">
-        <v>104087</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr">
+      <c r="H21" t="n">
+        <v>66490</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>msantini@qualtia.com</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>121983</v>
+      </c>
+      <c r="K21" t="n">
+        <v>398</v>
+      </c>
+      <c r="L21" t="n">
+        <v>121983</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>Exitoso</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>QUALTIA ALIMENTOS OPERACIONES</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>QAO680613E91</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CANTERA</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>601</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>66490</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>guadalupe.sanitni@gmail.com</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>121983</v>
+      </c>
+      <c r="K22" t="n">
+        <v>398</v>
+      </c>
+      <c r="L22" t="n">
+        <v>121983</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RIZTEK TECNOLOGIAS EN INFORMATICA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>RTI1008091Q2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CANTERA</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>601</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>4</v>
+      </c>
+      <c r="H23" t="n">
+        <v>31183</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>ana.cuenca@riztek.com.mx</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>122417</v>
+      </c>
+      <c r="K23" t="n">
+        <v>442</v>
+      </c>
+      <c r="L23" t="n">
+        <v>122417</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>BRITZI GIOVANNA DOMINGUEZ FELIX</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DOFB920722I88</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NORTE</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>612</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>31110</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>giovanna.dgz07@gmail.com</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>97667</v>
+      </c>
+      <c r="K24" t="n">
+        <v>405</v>
+      </c>
+      <c r="L24" t="n">
+        <v>97667</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>NOVARTIS FARMACEUTICA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NFA971101EDA</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CANTERA</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>601</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1090</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>omar_alejandro.holguin_cordova@novartis.com</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>121898</v>
+      </c>
+      <c r="K25" t="n">
+        <v>493</v>
+      </c>
+      <c r="L25" t="n">
+        <v>121898</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Exitoso</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>JUAN PABLO HURTADO JIMENEZ</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>HUJJ8601164D3</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CANTERA</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>626</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1</v>
+      </c>
+      <c r="H26" t="n">
+        <v>31215</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>juan.hrt00@gmail.com</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>122432</v>
+      </c>
+      <c r="K26" t="n">
+        <v>937</v>
+      </c>
+      <c r="L26" t="n">
+        <v>122432</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NOVARTIS FARMACEUTICA</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NFA971101EDA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CANTERA</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>601</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>4</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1090</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>omar_alejandro.holguin_cordova@novartis.com</t>
+        </is>
+      </c>
+      <c r="J27" t="n">
+        <v>121784</v>
+      </c>
+      <c r="K27" t="n">
+        <v>420</v>
+      </c>
+      <c r="L27" t="n">
+        <v>121784</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>FOLIO NO ENCONTRADO</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>ERROR</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GAMA COSMETICS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>GCO970206FDA</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CANTERA</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>601</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>4</v>
+      </c>
+      <c r="H28" t="n">
+        <v>9810</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>perlaadrianavazquezgante@gmail.com</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>122017</v>
+      </c>
+      <c r="K28" t="n">
+        <v>393</v>
+      </c>
+      <c r="L28" t="n">
+        <v>122017</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>Exitoso</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-04-04</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GAMA COSMETICS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>GCO970206FDA</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CANTERA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>601</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>G03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>09810</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>perlaadrianavazquezgante@gmail.com</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>122017</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>393.00</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>122017</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
